--- a/Running projects/Visa KHI Fit Out Project DMC Karachi/BOQ/BOQ Visa KHI Office.xlsx
+++ b/Running projects/Visa KHI Fit Out Project DMC Karachi/BOQ/BOQ Visa KHI Office.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2022\Visa KHI Fit Out Project DMC Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7886F5F-D62B-4EAA-8A12-3F49B7FE6D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797EA566-79F2-45DC-8BD6-245BA2437C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,21 +35,11 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="207">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -666,6 +656,15 @@
   </si>
   <si>
     <t>Discount 7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>divided by 5000</t>
   </si>
 </sst>
 </file>
@@ -673,13 +672,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#.##0\."/>
-    <numFmt numFmtId="167" formatCode="\$#\."/>
-    <numFmt numFmtId="168" formatCode="#\.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#.##0\."/>
+    <numFmt numFmtId="169" formatCode="\$#\."/>
+    <numFmt numFmtId="170" formatCode="#\.00"/>
   </numFmts>
   <fonts count="43" x14ac:knownFonts="1">
     <font>
@@ -1530,10 +1529,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1562,29 +1561,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1639,11 +1638,11 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1655,10 +1654,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="28" fillId="26" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,7 +1672,7 @@
     <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="26" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="26" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1733,7 +1732,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="27" borderId="24" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="27" borderId="24" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1741,7 +1740,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="27" borderId="25" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="27" borderId="25" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1770,7 +1769,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1782,11 +1781,11 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="25" borderId="2" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="25" borderId="2" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1794,7 +1793,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="26" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="26" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1814,7 +1813,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="25" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="25" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1830,15 +1829,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="22" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="28" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="28" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="28" borderId="22" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="31" fillId="28" borderId="22" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1859,16 +1858,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="88" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="25" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,11 +1930,11 @@
     <xf numFmtId="0" fontId="34" fillId="25" borderId="2" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1953,7 +1952,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="27" borderId="30" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="27" borderId="30" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1961,18 +1960,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="27" borderId="31" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="27" borderId="31" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="27" borderId="32" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="22" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1994,17 +1993,32 @@
     <xf numFmtId="0" fontId="31" fillId="27" borderId="31" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="2" xfId="88" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="2" xfId="88" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2019,21 +2033,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2055,6 +2054,8 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2164,9 +2165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2204,9 +2205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2239,26 +2240,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2291,26 +2275,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2487,10 +2454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,86 +2467,87 @@
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-    </row>
-    <row r="6" spans="1:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+    </row>
+    <row r="6" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2588,21 +2556,21 @@
         <v>12780900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -2611,14 +2579,14 @@
         <v>1329584</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="105" t="s">
         <v>202</v>
@@ -2629,8 +2597,12 @@
         <f>SUM(E8:E12)</f>
         <v>14110484</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="105" t="s">
         <v>203</v>
@@ -2641,8 +2613,12 @@
         <f>E13*7%</f>
         <v>987733.88000000012</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="105" t="s">
         <v>202</v>
@@ -2654,14 +2630,55 @@
         <v>13122750.119999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="104"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="104"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="104"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="122"/>
+      <c r="H19" s="123">
+        <f>E13</f>
+        <v>14110484</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="123">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="123">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="123">
+        <f>SUM(H19:H21)</f>
+        <v>18110484</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="123">
+        <f>H22/5000</f>
+        <v>3622.0967999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
